--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1993.574188348677</v>
+        <v>-5819.396849456523</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3596441.782099676</v>
+        <v>3596441.782099677</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>176.2125067645386</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>176.1446634785938</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>76.63105166035122</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,16 +1536,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>134.4542688345974</v>
       </c>
       <c r="E14" t="n">
-        <v>112.8211273008744</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,7 +1624,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>18.2849034872237</v>
       </c>
       <c r="E16" t="n">
-        <v>50.73209343995514</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1903,16 +1903,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>229.9834492550521</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.5266111030789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>76.27908990958284</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>229.8234629143939</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>201.3018903667172</v>
+        <v>224.285978493914</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -2140,7 +2140,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>60.07073011995457</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>11.45461388085811</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>252.4843751595143</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>296.866930286356</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>157.7217201960795</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>50.22293092537777</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2560,19 +2560,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>393.8373805065975</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>136.0250758436192</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>49.34995949258617</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>214.5646102646778</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>41.42029743895718</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>333.3838141281618</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>124.955498477721</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3031,16 +3031,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>289.0012590013207</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>149.6157531058527</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>30.83833652624708</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>116.094564296713</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>22.4068631917165</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>138.7679346478756</v>
       </c>
     </row>
     <row r="36">
@@ -3441,10 +3441,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>76.27908990958284</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>129.2558279457871</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>156.7012890994286</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>127.0375819608925</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.62546569681869</v>
+        <v>11.96377639543406</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.86811692413151</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>323.2115213346347</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>11.96377639543406</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>170.3034090720304</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>170.1167790360036</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>23.92542949176461</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447737</v>
+        <v>658.9737274659511</v>
       </c>
       <c r="C11" t="n">
-        <v>1922.18510463116</v>
+        <v>658.9737274659511</v>
       </c>
       <c r="D11" t="n">
-        <v>1486.275319805605</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
-        <v>1052.5005749639</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F11" t="n">
-        <v>624.6331453731077</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>225.1304540525849</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435808</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>658.9737274659511</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C13" t="n">
-        <v>299.093514772602</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741246</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
         <v>47.20655154895474</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>767.3301446246915</v>
       </c>
       <c r="M13" t="n">
-        <v>1690.512214359095</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N13" t="n">
-        <v>1818.011126162985</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O13" t="n">
-        <v>1935.777007510746</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675982</v>
@@ -5232,19 +5232,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.401431380284</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="C14" t="n">
-        <v>1258.258958563707</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="D14" t="n">
-        <v>1258.258958563707</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V14" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W14" t="n">
-        <v>1696.401431380284</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X14" t="n">
-        <v>1696.401431380284</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y14" t="n">
-        <v>1696.401431380284</v>
+        <v>1444.163810064194</v>
       </c>
     </row>
     <row r="15">
@@ -5336,43 +5336,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>807.9003835041287</v>
+        <v>717.0469809559645</v>
       </c>
       <c r="C16" t="n">
-        <v>635.3386719873537</v>
+        <v>544.4852694391894</v>
       </c>
       <c r="D16" t="n">
-        <v>635.3386719873537</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M16" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041287</v>
+        <v>908.8655996749517</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>716.4307943255671</v>
+        <v>1616.712750254118</v>
       </c>
       <c r="C17" t="n">
-        <v>716.4307943255671</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D17" t="n">
-        <v>716.4307943255671</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E17" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783223</v>
+        <v>1616.712750254118</v>
       </c>
       <c r="X17" t="n">
-        <v>1122.013229783223</v>
+        <v>1616.712750254118</v>
       </c>
       <c r="Y17" t="n">
-        <v>716.4307943255671</v>
+        <v>1616.712750254118</v>
       </c>
     </row>
     <row r="18">
@@ -5573,43 +5573,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043032</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>959.9477806029472</v>
+        <v>629.3286074169882</v>
       </c>
       <c r="C19" t="n">
-        <v>787.3860690861721</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D19" t="n">
-        <v>621.5080762876948</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7500725384321</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G19" t="n">
         <v>110.3018381127067</v>
@@ -5670,28 +5670,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1896.604229088122</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1624.577824674414</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
-        <v>1379.186070007826</v>
+        <v>1048.566896821867</v>
       </c>
       <c r="Y19" t="n">
-        <v>1151.766399321934</v>
+        <v>821.1472261359754</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>650.0444856641415</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="C20" t="n">
-        <v>650.0444856641415</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="D20" t="n">
-        <v>650.0444856641415</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="E20" t="n">
-        <v>650.0444856641415</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="F20" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1889.485634438362</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>1484.630179849396</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>1484.630179849396</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y20" t="n">
-        <v>1076.344056149049</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="21">
@@ -5810,43 +5810,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043032</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851411</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C22" t="n">
-        <v>443.520053268366</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D22" t="n">
-        <v>277.6420604698887</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>107.884056720626</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>107.884056720626</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>107.884056720626</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>116.6355901513735</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>488.1941452900673</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>1030.274828676326</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.32005419002</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041283</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C23" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D23" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E23" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2105.292855064388</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W23" t="n">
-        <v>1700.437400475421</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X23" t="n">
-        <v>1281.294937054732</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y23" t="n">
-        <v>873.0088133543854</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,58 +6123,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1079.926787917837</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C25" t="n">
-        <v>907.3650764010616</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D25" t="n">
-        <v>741.4870836025843</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E25" t="n">
-        <v>571.7290798533215</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F25" t="n">
-        <v>395.0220258150778</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G25" t="n">
-        <v>230.2808454275962</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H25" t="n">
-        <v>97.93678480691207</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>828.1746199579899</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N25" t="n">
-        <v>1539.854607180194</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
         <v>2118.080353351143</v>
@@ -6183,16 +6183,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W25" t="n">
-        <v>1552.738213270316</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X25" t="n">
-        <v>1307.346458603728</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>1079.926787917837</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1355.033554032792</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="C26" t="n">
-        <v>916.8910812162151</v>
+        <v>1114.246330190817</v>
       </c>
       <c r="D26" t="n">
-        <v>480.9812963906596</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2182.462141153827</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2182.462141153827</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2182.462141153827</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.462141153827</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X26" t="n">
-        <v>1763.319677733138</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y26" t="n">
-        <v>1355.033554032792</v>
+        <v>1552.388803007394</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851416</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C28" t="n">
-        <v>443.5200532683665</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>443.5200532683665</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>273.7620495191038</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>97.05499548085996</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6390,19 +6390,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092379</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856608</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041287</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2318.488893165962</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2318.488893165962</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1955.871943099788</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>1551.016488510822</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>1551.016488510822</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="Y29" t="n">
-        <v>1142.730364810475</v>
+        <v>744.7955325958366</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
         <v>341.0245550495863</v>
@@ -6533,31 +6533,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>858.3289888817349</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C31" t="n">
-        <v>685.7672773649598</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D31" t="n">
-        <v>519.8892845664825</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E31" t="n">
-        <v>350.1312808172198</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F31" t="n">
-        <v>173.424226778976</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>744.9929992049549</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>1329.17407462327</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N31" t="n">
-        <v>1898.931789584804</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540314</v>
@@ -6651,22 +6651,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>2081.940945496479</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.98543736691</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W31" t="n">
-        <v>1522.959032953201</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.567278286614</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.147607600722</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.1270151866524</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>47.20655154895473</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>47.20655154895473</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>47.20655154895473</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6736,16 +6736,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>1592.855172792596</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X32" t="n">
-        <v>1173.712709371907</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y32" t="n">
-        <v>765.4265856715602</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906846</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965031</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127630993</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>919.7301297068562</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V34" t="n">
-        <v>1856.386578192031</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W34" t="n">
-        <v>1584.360173778323</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X34" t="n">
-        <v>1338.968419111735</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.548748425843</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6952,37 +6952,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2337.694382304588</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2078.623690826102</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1716.006740759929</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W35" t="n">
-        <v>1311.151286170962</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X35" t="n">
-        <v>1311.151286170962</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y35" t="n">
-        <v>1311.151286170962</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="36">
@@ -6995,31 +6995,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>959.9477806029472</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>787.3860690861721</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>621.5080762876948</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>451.7500725384321</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092371</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827552</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789086</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362629</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.604229088122</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1896.604229088122</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W37" t="n">
-        <v>1624.577824674414</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X37" t="n">
-        <v>1379.186070007826</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y37" t="n">
-        <v>1151.766399321934</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2202.043447044273</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>2202.043447044273</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W38" t="n">
-        <v>2202.043447044273</v>
+        <v>1979.769166272159</v>
       </c>
       <c r="X38" t="n">
-        <v>1782.900983623584</v>
+        <v>1560.626702851469</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="39">
@@ -7253,10 +7253,10 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7311,19 +7311,19 @@
         <v>471.6552262893761</v>
       </c>
       <c r="C40" t="n">
-        <v>471.6552262893761</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D40" t="n">
-        <v>471.6552262893761</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E40" t="n">
-        <v>407.3870791208724</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
         <v>110.3018381127067</v>
@@ -7332,25 +7332,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>413.3628026016838</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>997.5438780199985</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1567.301592981533</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O40" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1144.298223916359</v>
+        <v>755.070575821621</v>
       </c>
       <c r="C41" t="n">
-        <v>1144.298223916359</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D41" t="n">
-        <v>1144.298223916359</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.298223916359</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
@@ -7414,19 +7414,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2320.056752271846</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2320.056752271846</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2320.056752271846</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1957.439802205673</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1552.584347616706</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>1552.584347616706</v>
+        <v>755.070575821621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1144.298223916359</v>
+        <v>755.070575821621</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>601.5415720081295</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>1185.722647426444</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N43" t="n">
-        <v>1755.480362387978</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7599,22 +7599,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>2215.901038951971</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1928.945530822401</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.868684372189</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>1088.726211555613</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>652.8164267300572</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>219.0416818883523</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>219.0416818883523</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.868684372189</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>1526.868684372189</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>1526.868684372189</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y44" t="n">
-        <v>1526.868684372189</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7706,46 +7706,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
         <v>1614.947661807679</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683665</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>443.5200532683665</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5200532683665</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>266.8129992301227</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>744.9929992049549</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.17407462327</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584804</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540314</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>80.00897722411321</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.05088382581016</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>177.1920849464597</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464597</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>10.62967161639961</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464592</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>141.4680432173439</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10278,16 +10278,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>158.2045317475401</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042861</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P40" t="n">
-        <v>69.27619576520647</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,19 +11226,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032066</v>
       </c>
       <c r="O43" t="n">
-        <v>303.104963259485</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475401</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.3381802127613</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>90.87967246293482</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>113.269380871446</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>297.0964181427025</v>
       </c>
       <c r="E14" t="n">
-        <v>316.6158700924134</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>145.9343093832688</v>
       </c>
       <c r="E16" t="n">
-        <v>117.328330271815</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>170.823450788025</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.676651360264202</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.806863138691</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>13.11437420552778</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23980,7 +23980,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>222.2868649281671</v>
+        <v>199.3027768009703</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>70.9498898945227</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>257.8515264887133</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>106.5064054059974</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>118.0841085001264</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>13.11437420552784</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>12.24140277273666</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>37.71330647070243</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>73.62846317195971</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>54.7415301048936</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24691,10 +24691,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>168.2332415766217</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>81.56722465832064</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.13827010588575</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>144.7597890870902</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24976,16 +24976,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>254.5875093574904</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.3808763442455</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>167.9913887515609</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>187.2466758238624</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>265.4353278154675</v>
       </c>
     </row>
     <row r="36">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>199.3236757221616</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.6820091741345</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>99.7786954642726</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>273.7693180821845</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>104.4349580149514</v>
+        <v>156.0966473163361</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,10 +25639,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1935891632194853</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>91.73951745184769</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>152.2554364750585</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>99.002731297541</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>225.3908853713139</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.1683390918421</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414478.5145846792</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414478.5145846792</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>414478.5145846792</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>414478.5145846792</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>414478.5145846791</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>414478.5145846792</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>414478.5145846792</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>414478.5145846791</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414478.5145846792</v>
+        <v>414478.5145846793</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>149432.6927357765</v>
       </c>
       <c r="I2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
       <c r="J2" t="n">
         <v>149432.6927357765</v>
@@ -26355,7 +26355,7 @@
         <v>149432.6927357765</v>
       </c>
       <c r="P2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025714</v>
+        <v>147050.7684025715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="F4" t="n">
         <v>13837.4771430886</v>
@@ -26450,10 +26450,10 @@
         <v>13837.4771430886</v>
       </c>
       <c r="M4" t="n">
+        <v>13837.4771430886</v>
+      </c>
+      <c r="N4" t="n">
         <v>13837.47714308859</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13837.4771430886</v>
       </c>
       <c r="O4" t="n">
         <v>13837.4771430886</v>
@@ -26481,28 +26481,28 @@
         <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-461591.0666076257</v>
+        <v>-462144.9470508475</v>
       </c>
       <c r="F6" t="n">
-        <v>89544.13438305006</v>
+        <v>88990.25393982818</v>
       </c>
       <c r="G6" t="n">
-        <v>89544.13438305006</v>
+        <v>88990.25393982817</v>
       </c>
       <c r="H6" t="n">
-        <v>89544.13438305006</v>
+        <v>88990.25393982814</v>
       </c>
       <c r="I6" t="n">
-        <v>89544.13438305</v>
+        <v>88990.25393982814</v>
       </c>
       <c r="J6" t="n">
-        <v>89544.13438305006</v>
+        <v>88990.25393982814</v>
       </c>
       <c r="K6" t="n">
-        <v>89544.13438305008</v>
+        <v>88990.25393982814</v>
       </c>
       <c r="L6" t="n">
-        <v>89544.13438305008</v>
+        <v>88990.25393982811</v>
       </c>
       <c r="M6" t="n">
-        <v>-57506.63401952139</v>
+        <v>-58060.51446274332</v>
       </c>
       <c r="N6" t="n">
-        <v>89544.13438305006</v>
+        <v>88990.25393982815</v>
       </c>
       <c r="O6" t="n">
-        <v>89544.13438305006</v>
+        <v>88990.25393982815</v>
       </c>
       <c r="P6" t="n">
-        <v>89544.13438305003</v>
+        <v>88990.25393982814</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26801,28 +26801,28 @@
         <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619341</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,31 +31992,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,31 +32229,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,31 +32466,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699007</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125708</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233691</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34538,28 +34538,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>205.1309990607778</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>171.8378092578134</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916725</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>296.1475206512696</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
@@ -36065,7 +36065,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785867</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125708</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916725</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
@@ -36217,7 +36217,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>70.13034202264521</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
@@ -36293,16 +36293,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>266.5900650540085</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362903</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36755,22 +36755,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409514</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
@@ -36919,7 +36919,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
@@ -36928,7 +36928,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>277.15996745235</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37074,7 +37074,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916764</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37317,19 +37317,19 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>281.8524450409507</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561045</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P40" t="n">
-        <v>171.06312119721</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233691</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
@@ -37946,22 +37946,22 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>304.5047560030951</v>
       </c>
       <c r="O43" t="n">
-        <v>422.0603989642948</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
         <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
-        <v>277.15996745235</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
